--- a/data/pca/factorExposure/factorExposure_2012-01-18.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-18.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01647767275050237</v>
+        <v>0.01539587285305042</v>
       </c>
       <c r="C2">
-        <v>0.03089965908747001</v>
+        <v>0.02551689413285044</v>
       </c>
       <c r="D2">
-        <v>0.01925317935317649</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>0.01831731393608832</v>
+      </c>
+      <c r="E2">
+        <v>0.01387311775001576</v>
+      </c>
+      <c r="F2">
+        <v>-0.01344259385951693</v>
+      </c>
+      <c r="G2">
+        <v>0.004098395955178272</v>
+      </c>
+      <c r="H2">
+        <v>-0.04776119110504944</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.07396837484470328</v>
+        <v>0.08784173912564446</v>
       </c>
       <c r="C4">
-        <v>0.05330608806417071</v>
+        <v>0.04011809717933977</v>
       </c>
       <c r="D4">
-        <v>0.08497292772141948</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>0.06798655792420279</v>
+      </c>
+      <c r="E4">
+        <v>0.006459132692672088</v>
+      </c>
+      <c r="F4">
+        <v>-0.03728121673940137</v>
+      </c>
+      <c r="G4">
+        <v>0.003028279977842657</v>
+      </c>
+      <c r="H4">
+        <v>0.03744077709241437</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.1097013790076951</v>
+        <v>0.1212059971088646</v>
       </c>
       <c r="C6">
-        <v>0.05032089024505541</v>
+        <v>0.03616168645494432</v>
       </c>
       <c r="D6">
-        <v>0.006273403636342533</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.01129813089718813</v>
+      </c>
+      <c r="E6">
+        <v>-0.02262832941021221</v>
+      </c>
+      <c r="F6">
+        <v>-0.05358383860809099</v>
+      </c>
+      <c r="G6">
+        <v>0.03266752417402192</v>
+      </c>
+      <c r="H6">
+        <v>-0.1161159568196644</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.05394702344515796</v>
+        <v>0.06309867289352993</v>
       </c>
       <c r="C7">
-        <v>0.02510325287960164</v>
+        <v>0.01429312771211803</v>
       </c>
       <c r="D7">
-        <v>0.03636363511329573</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.04790994139770806</v>
+      </c>
+      <c r="E7">
+        <v>0.03653269866525661</v>
+      </c>
+      <c r="F7">
+        <v>-0.03627293125520537</v>
+      </c>
+      <c r="G7">
+        <v>-0.03311195846596985</v>
+      </c>
+      <c r="H7">
+        <v>0.01620107284779371</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.04061499648717721</v>
+        <v>0.04147629807682424</v>
       </c>
       <c r="C8">
-        <v>0.01453147544108876</v>
+        <v>0.009109446034161854</v>
       </c>
       <c r="D8">
-        <v>0.06197657123236042</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.02716225058510717</v>
+      </c>
+      <c r="E8">
+        <v>0.0185482718331737</v>
+      </c>
+      <c r="F8">
+        <v>-0.05767987945555166</v>
+      </c>
+      <c r="G8">
+        <v>0.05791077562783296</v>
+      </c>
+      <c r="H8">
+        <v>-0.01661642241150316</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.06795819616632358</v>
+        <v>0.07885839140365031</v>
       </c>
       <c r="C9">
-        <v>0.03941027148018434</v>
+        <v>0.02690887411411224</v>
       </c>
       <c r="D9">
-        <v>0.07675736629190967</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>0.0637736155224089</v>
+      </c>
+      <c r="E9">
+        <v>0.02604665548134453</v>
+      </c>
+      <c r="F9">
+        <v>-0.0350419608086739</v>
+      </c>
+      <c r="G9">
+        <v>0.01198505057259554</v>
+      </c>
+      <c r="H9">
+        <v>0.04705108699998645</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.03231029979575147</v>
+        <v>0.03938717668669078</v>
       </c>
       <c r="C10">
-        <v>0.02606759928584124</v>
+        <v>0.04688246028288519</v>
       </c>
       <c r="D10">
-        <v>-0.169606142117935</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>-0.1738028121579989</v>
+      </c>
+      <c r="E10">
+        <v>0.03679078454070829</v>
+      </c>
+      <c r="F10">
+        <v>-0.0535372782733965</v>
+      </c>
+      <c r="G10">
+        <v>-0.01692751442337681</v>
+      </c>
+      <c r="H10">
+        <v>-0.03767550958104414</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.07255115449876277</v>
+        <v>0.07693437179176454</v>
       </c>
       <c r="C11">
-        <v>0.04196928662572175</v>
+        <v>0.02361066898389419</v>
       </c>
       <c r="D11">
-        <v>0.05691418041566977</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.06252205852725141</v>
+      </c>
+      <c r="E11">
+        <v>-0.005826543579058359</v>
+      </c>
+      <c r="F11">
+        <v>-0.03016008823117421</v>
+      </c>
+      <c r="G11">
+        <v>0.0174326889345437</v>
+      </c>
+      <c r="H11">
+        <v>0.073992499040792</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.06055075613704257</v>
+        <v>0.06943251460775651</v>
       </c>
       <c r="C12">
-        <v>0.05046446925305224</v>
+        <v>0.03558057909251365</v>
       </c>
       <c r="D12">
-        <v>0.04453224171034189</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.04624990871599443</v>
+      </c>
+      <c r="E12">
+        <v>0.01074311254589819</v>
+      </c>
+      <c r="F12">
+        <v>-0.02289786879711666</v>
+      </c>
+      <c r="G12">
+        <v>0.01238181399476107</v>
+      </c>
+      <c r="H12">
+        <v>0.03121098648377687</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.06561459718449603</v>
+        <v>0.06709669151359458</v>
       </c>
       <c r="C13">
-        <v>0.03457640507138864</v>
+        <v>0.02000457963647167</v>
       </c>
       <c r="D13">
-        <v>0.04695407376684255</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>0.03845103918468419</v>
+      </c>
+      <c r="E13">
+        <v>0.01313579526907957</v>
+      </c>
+      <c r="F13">
+        <v>-0.01111166124271577</v>
+      </c>
+      <c r="G13">
+        <v>-0.001981601965073959</v>
+      </c>
+      <c r="H13">
+        <v>0.05538383785300273</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.03320919886464378</v>
+        <v>0.03954656762727995</v>
       </c>
       <c r="C14">
-        <v>0.03052630841601191</v>
+        <v>0.02719136593446315</v>
       </c>
       <c r="D14">
-        <v>0.004099618083511737</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>0.0129673716930869</v>
+      </c>
+      <c r="E14">
+        <v>0.03242175538705717</v>
+      </c>
+      <c r="F14">
+        <v>-0.01440071966968428</v>
+      </c>
+      <c r="G14">
+        <v>0.01746954975912421</v>
+      </c>
+      <c r="H14">
+        <v>0.05738183314590598</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0.03990780605343285</v>
+        <v>0.03913752463700521</v>
       </c>
       <c r="C15">
-        <v>0.008135695380167266</v>
+        <v>0.00212819161568665</v>
       </c>
       <c r="D15">
-        <v>0.02039661459878963</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>0.007970008736795634</v>
+      </c>
+      <c r="E15">
+        <v>0.03560778267506486</v>
+      </c>
+      <c r="F15">
+        <v>0.0005158938813031648</v>
+      </c>
+      <c r="G15">
+        <v>0.02807532290678307</v>
+      </c>
+      <c r="H15">
+        <v>0.03087961478315372</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.06085985152104576</v>
+        <v>0.0714030681076281</v>
       </c>
       <c r="C16">
-        <v>0.03921648766564398</v>
+        <v>0.02591908537493145</v>
       </c>
       <c r="D16">
-        <v>0.04866778775977017</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>0.05971297865010337</v>
+      </c>
+      <c r="E16">
+        <v>0.00347951281001794</v>
+      </c>
+      <c r="F16">
+        <v>-0.02965256223791406</v>
+      </c>
+      <c r="G16">
+        <v>0.009803978260166912</v>
+      </c>
+      <c r="H16">
+        <v>0.04907300031844382</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.06251230421258255</v>
+        <v>0.06326600986559404</v>
       </c>
       <c r="C20">
-        <v>0.02356733936975479</v>
+        <v>0.009511218168791476</v>
       </c>
       <c r="D20">
-        <v>0.04882665848404035</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>0.03867142815241921</v>
+      </c>
+      <c r="E20">
+        <v>0.01633748193903154</v>
+      </c>
+      <c r="F20">
+        <v>-0.03092731279565002</v>
+      </c>
+      <c r="G20">
+        <v>0.01842448911582876</v>
+      </c>
+      <c r="H20">
+        <v>0.03716272723108686</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.02672801966404662</v>
+        <v>0.02617144727263817</v>
       </c>
       <c r="C21">
-        <v>-0.002446432507856899</v>
+        <v>-0.009787260272613488</v>
       </c>
       <c r="D21">
-        <v>0.02106625823988906</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>0.02366392997623708</v>
+      </c>
+      <c r="E21">
+        <v>0.04322733395362176</v>
+      </c>
+      <c r="F21">
+        <v>0.01343127338566005</v>
+      </c>
+      <c r="G21">
+        <v>0.006902653790907832</v>
+      </c>
+      <c r="H21">
+        <v>-0.0460876012983684</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.07986117594471175</v>
+        <v>0.07085187168470704</v>
       </c>
       <c r="C22">
-        <v>0.059471057624565</v>
+        <v>0.03559605491270211</v>
       </c>
       <c r="D22">
-        <v>0.1340011840423597</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>0.09272533724160979</v>
+      </c>
+      <c r="E22">
+        <v>0.604827867036046</v>
+      </c>
+      <c r="F22">
+        <v>0.1219252554064964</v>
+      </c>
+      <c r="G22">
+        <v>-0.1034868954832435</v>
+      </c>
+      <c r="H22">
+        <v>-0.1520838074421909</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.08083397105288014</v>
+        <v>0.07168007242739052</v>
       </c>
       <c r="C23">
-        <v>0.05819975835859823</v>
+        <v>0.03413524762140435</v>
       </c>
       <c r="D23">
-        <v>0.1353490583189225</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>0.09344322960180268</v>
+      </c>
+      <c r="E23">
+        <v>0.6039343289683898</v>
+      </c>
+      <c r="F23">
+        <v>0.1209045808993239</v>
+      </c>
+      <c r="G23">
+        <v>-0.1021719371662686</v>
+      </c>
+      <c r="H23">
+        <v>-0.1485929303788104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.07457984404442436</v>
+        <v>0.0803721933222821</v>
       </c>
       <c r="C24">
-        <v>0.05012624209401715</v>
+        <v>0.03200605188151646</v>
       </c>
       <c r="D24">
-        <v>0.05914042411612435</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>0.06034822618898599</v>
+      </c>
+      <c r="E24">
+        <v>0.01483684496483479</v>
+      </c>
+      <c r="F24">
+        <v>-0.03807441393847958</v>
+      </c>
+      <c r="G24">
+        <v>0.0236397070874374</v>
+      </c>
+      <c r="H24">
+        <v>0.03715172777647674</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07435808153208409</v>
+        <v>0.07914363750574063</v>
       </c>
       <c r="C25">
-        <v>0.05365303901111172</v>
+        <v>0.0360487288875822</v>
       </c>
       <c r="D25">
-        <v>0.06471523077506702</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>0.04992453971794021</v>
+      </c>
+      <c r="E25">
+        <v>0.01966253635403852</v>
+      </c>
+      <c r="F25">
+        <v>-0.03114729220293255</v>
+      </c>
+      <c r="G25">
+        <v>0.03233808138746895</v>
+      </c>
+      <c r="H25">
+        <v>0.04422722727712866</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.04492039602455081</v>
+        <v>0.04693010442738301</v>
       </c>
       <c r="C26">
-        <v>0.008295891485194499</v>
+        <v>0.0006253800378533477</v>
       </c>
       <c r="D26">
-        <v>0.01324046154875482</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>0.01724045754185525</v>
+      </c>
+      <c r="E26">
+        <v>0.04168953945731424</v>
+      </c>
+      <c r="F26">
+        <v>-0.03207069803276325</v>
+      </c>
+      <c r="G26">
+        <v>-0.002459812190280766</v>
+      </c>
+      <c r="H26">
+        <v>0.04802333488083337</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.053871706472585</v>
+        <v>0.06606437177157211</v>
       </c>
       <c r="C28">
-        <v>0.06939884014199064</v>
+        <v>0.09815880790185556</v>
       </c>
       <c r="D28">
-        <v>-0.3051233799096099</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>-0.3027894187670514</v>
+      </c>
+      <c r="E28">
+        <v>0.03491577555154007</v>
+      </c>
+      <c r="F28">
+        <v>-0.05742938637527487</v>
+      </c>
+      <c r="G28">
+        <v>0.03150546796457529</v>
+      </c>
+      <c r="H28">
+        <v>-0.04016383879695972</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.04272774105756267</v>
+        <v>0.04767736598217014</v>
       </c>
       <c r="C29">
-        <v>0.02897444546064128</v>
+        <v>0.02442934364508552</v>
       </c>
       <c r="D29">
-        <v>0.008770252843943796</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>0.01113093336539262</v>
+      </c>
+      <c r="E29">
+        <v>0.06206717211945224</v>
+      </c>
+      <c r="F29">
+        <v>-0.01383165041001648</v>
+      </c>
+      <c r="G29">
+        <v>0.004635086419565815</v>
+      </c>
+      <c r="H29">
+        <v>0.07723952448475675</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1298362799738886</v>
+        <v>0.1299943379543054</v>
       </c>
       <c r="C30">
-        <v>0.0869747972227199</v>
+        <v>0.05944690883647143</v>
       </c>
       <c r="D30">
-        <v>0.1004827033740239</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>0.06989780954345831</v>
+      </c>
+      <c r="E30">
+        <v>0.0836633530764086</v>
+      </c>
+      <c r="F30">
+        <v>-0.004856478542730327</v>
+      </c>
+      <c r="G30">
+        <v>0.08178471904134652</v>
+      </c>
+      <c r="H30">
+        <v>-0.07577024638186063</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.04476959545176164</v>
+        <v>0.04822278996115324</v>
       </c>
       <c r="C31">
-        <v>0.02177365294698616</v>
+        <v>0.01252635982490456</v>
       </c>
       <c r="D31">
-        <v>0.02506208654323976</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>0.03098267674656623</v>
+      </c>
+      <c r="E31">
+        <v>0.02424906215249214</v>
+      </c>
+      <c r="F31">
+        <v>-0.01143429200867592</v>
+      </c>
+      <c r="G31">
+        <v>-0.01616785764308677</v>
+      </c>
+      <c r="H31">
+        <v>0.07036985327130882</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>0.03726617276189816</v>
+        <v>0.03812547356830672</v>
       </c>
       <c r="C32">
-        <v>0.02418358952708486</v>
+        <v>0.02093778859133252</v>
       </c>
       <c r="D32">
-        <v>0.02353842219427281</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>0.01110823227036903</v>
+      </c>
+      <c r="E32">
+        <v>0.05720044439645576</v>
+      </c>
+      <c r="F32">
+        <v>0.005729430482238377</v>
+      </c>
+      <c r="G32">
+        <v>0.0484798929333154</v>
+      </c>
+      <c r="H32">
+        <v>0.06062756701567068</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.08502665132620578</v>
+        <v>0.09552585554585578</v>
       </c>
       <c r="C33">
-        <v>0.03896138343589355</v>
+        <v>0.02350886054782113</v>
       </c>
       <c r="D33">
-        <v>0.05574632748232516</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>0.04618290989526504</v>
+      </c>
+      <c r="E33">
+        <v>0.01705483323289729</v>
+      </c>
+      <c r="F33">
+        <v>-0.008296820857335543</v>
+      </c>
+      <c r="G33">
+        <v>0.006164996971241345</v>
+      </c>
+      <c r="H33">
+        <v>0.05632102115604229</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.05868739215020379</v>
+        <v>0.06398230508804716</v>
       </c>
       <c r="C34">
-        <v>0.02517562619517043</v>
+        <v>0.01079189113858876</v>
       </c>
       <c r="D34">
-        <v>0.05274435834397272</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>0.04870325382757356</v>
+      </c>
+      <c r="E34">
+        <v>0.0081147777890807</v>
+      </c>
+      <c r="F34">
+        <v>-0.02191876717288541</v>
+      </c>
+      <c r="G34">
+        <v>0.01026440412135925</v>
+      </c>
+      <c r="H34">
+        <v>0.05413952002448899</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0.03646911704976055</v>
+        <v>0.03847063057460679</v>
       </c>
       <c r="C35">
-        <v>0.007693468912264201</v>
+        <v>0.002392912348424671</v>
       </c>
       <c r="D35">
-        <v>0.01732519260973417</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>0.01403982557203956</v>
+      </c>
+      <c r="E35">
+        <v>0.02165627580579305</v>
+      </c>
+      <c r="F35">
+        <v>0.01693897337688624</v>
+      </c>
+      <c r="G35">
+        <v>-0.007583236762644347</v>
+      </c>
+      <c r="H35">
+        <v>0.0206209197731006</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.02405138488426662</v>
+        <v>0.02884637713157213</v>
       </c>
       <c r="C36">
-        <v>0.01789651328605905</v>
+        <v>0.01440590500056415</v>
       </c>
       <c r="D36">
-        <v>0.02163160003058235</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>0.01559600687283413</v>
+      </c>
+      <c r="E36">
+        <v>0.03064812913353251</v>
+      </c>
+      <c r="F36">
+        <v>-0.02513898243268563</v>
+      </c>
+      <c r="G36">
+        <v>-0.002373421294843672</v>
+      </c>
+      <c r="H36">
+        <v>0.04051433476740475</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.0426228602895866</v>
+        <v>0.04377421236406253</v>
       </c>
       <c r="C38">
-        <v>0.00169008138991334</v>
+        <v>-0.005297235117100991</v>
       </c>
       <c r="D38">
-        <v>0.01844782416038579</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>0.02068702768472303</v>
+      </c>
+      <c r="E38">
+        <v>0.05042198679278271</v>
+      </c>
+      <c r="F38">
+        <v>0.005319286769674329</v>
+      </c>
+      <c r="G38">
+        <v>0.00914993196060433</v>
+      </c>
+      <c r="H38">
+        <v>0.03461374407569124</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.09185631224125113</v>
+        <v>0.1006295709502846</v>
       </c>
       <c r="C39">
-        <v>0.06704397816243289</v>
+        <v>0.04785500964926186</v>
       </c>
       <c r="D39">
-        <v>0.05405255970628931</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>0.06304363200724618</v>
+      </c>
+      <c r="E39">
+        <v>0.00837460935617446</v>
+      </c>
+      <c r="F39">
+        <v>0.00308411190170331</v>
+      </c>
+      <c r="G39">
+        <v>0.04542871113376548</v>
+      </c>
+      <c r="H39">
+        <v>0.02927276633193949</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.07991075341932645</v>
+        <v>0.06365611477153654</v>
       </c>
       <c r="C40">
-        <v>0.03333360920065629</v>
+        <v>0.005595808136623577</v>
       </c>
       <c r="D40">
-        <v>0.004635524658198787</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>0.02805494403433103</v>
+      </c>
+      <c r="E40">
+        <v>0.03614909036930339</v>
+      </c>
+      <c r="F40">
+        <v>0.04826262722656675</v>
+      </c>
+      <c r="G40">
+        <v>0.03170988265084537</v>
+      </c>
+      <c r="H40">
+        <v>-0.09341103786248176</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.04288511422511341</v>
+        <v>0.04463135877870009</v>
       </c>
       <c r="C41">
-        <v>0.004696385702359596</v>
+        <v>-0.004926766354469215</v>
       </c>
       <c r="D41">
-        <v>0.03676104517272887</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>0.03243298181067276</v>
+      </c>
+      <c r="E41">
+        <v>0.002205386766915268</v>
+      </c>
+      <c r="F41">
+        <v>0.01459186215503877</v>
+      </c>
+      <c r="G41">
+        <v>0.01442216227901297</v>
+      </c>
+      <c r="H41">
+        <v>0.03606085861207825</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.05262428764065673</v>
+        <v>0.05969320076020381</v>
       </c>
       <c r="C43">
-        <v>0.02560579401321601</v>
+        <v>0.01664595635269204</v>
       </c>
       <c r="D43">
-        <v>0.01655438371196447</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>0.02762173592045118</v>
+      </c>
+      <c r="E43">
+        <v>0.02228471719252517</v>
+      </c>
+      <c r="F43">
+        <v>-0.01244043978432156</v>
+      </c>
+      <c r="G43">
+        <v>-0.01401798549516082</v>
+      </c>
+      <c r="H43">
+        <v>0.06711601836006498</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.09742219580216248</v>
+        <v>0.09571630707620514</v>
       </c>
       <c r="C44">
-        <v>0.08504854468571507</v>
+        <v>0.05896311074803883</v>
       </c>
       <c r="D44">
-        <v>0.07685260647569769</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>0.0652091601885539</v>
+      </c>
+      <c r="E44">
+        <v>0.08037821795597638</v>
+      </c>
+      <c r="F44">
+        <v>-0.07176842438040852</v>
+      </c>
+      <c r="G44">
+        <v>0.02988706787608127</v>
+      </c>
+      <c r="H44">
+        <v>0.01642945019573517</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.02637542239403637</v>
+        <v>0.03456801561788631</v>
       </c>
       <c r="C46">
-        <v>0.01493601082849368</v>
+        <v>0.01068813834951775</v>
       </c>
       <c r="D46">
-        <v>0.03071581357788763</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>0.03736144622322482</v>
+      </c>
+      <c r="E46">
+        <v>0.03408891945181972</v>
+      </c>
+      <c r="F46">
+        <v>-0.0114968832985812</v>
+      </c>
+      <c r="G46">
+        <v>-0.0009976845818041669</v>
+      </c>
+      <c r="H46">
+        <v>0.03576518719733852</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.03156038801286878</v>
+        <v>0.03896275653912906</v>
       </c>
       <c r="C47">
-        <v>0.02354195101217743</v>
+        <v>0.01952633702520378</v>
       </c>
       <c r="D47">
-        <v>0.006148973494395148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>0.008721933710690797</v>
+      </c>
+      <c r="E47">
+        <v>0.04505543289838968</v>
+      </c>
+      <c r="F47">
+        <v>-0.0127758148618781</v>
+      </c>
+      <c r="G47">
+        <v>-0.03838452179628701</v>
+      </c>
+      <c r="H47">
+        <v>0.04210999759887482</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.03440802987649956</v>
+        <v>0.03869318317713802</v>
       </c>
       <c r="C48">
-        <v>0.01741532565869915</v>
+        <v>0.01039042566432479</v>
       </c>
       <c r="D48">
-        <v>0.03237765064977071</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>0.01910509479726533</v>
+      </c>
+      <c r="E48">
+        <v>0.03831922512912433</v>
+      </c>
+      <c r="F48">
+        <v>-0.01005287971941104</v>
+      </c>
+      <c r="G48">
+        <v>0.0180597068025555</v>
+      </c>
+      <c r="H48">
+        <v>0.03359327652554804</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>0.1620187121314943</v>
+        <v>0.1918836045663686</v>
       </c>
       <c r="C49">
-        <v>0.04792572845070506</v>
+        <v>0.02969714223612071</v>
       </c>
       <c r="D49">
-        <v>0.001084172892578819</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.03191504779305048</v>
+      </c>
+      <c r="E49">
+        <v>-0.1657659997441929</v>
+      </c>
+      <c r="F49">
+        <v>-0.05813443384527491</v>
+      </c>
+      <c r="G49">
+        <v>-0.09571581929375597</v>
+      </c>
+      <c r="H49">
+        <v>-0.2193667339453955</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.03981383490078624</v>
+        <v>0.04520845783151559</v>
       </c>
       <c r="C50">
-        <v>0.01927865980897387</v>
+        <v>0.0121614338754994</v>
       </c>
       <c r="D50">
-        <v>0.04487024461997739</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>0.03673894039475045</v>
+      </c>
+      <c r="E50">
+        <v>0.04216055606620898</v>
+      </c>
+      <c r="F50">
+        <v>-0.01319207770225255</v>
+      </c>
+      <c r="G50">
+        <v>-0.01540939283355466</v>
+      </c>
+      <c r="H50">
+        <v>0.07509995127535794</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.02799296760104195</v>
+        <v>0.03099036885242321</v>
       </c>
       <c r="C51">
-        <v>0.009836856174510038</v>
+        <v>0.00483476448538201</v>
       </c>
       <c r="D51">
-        <v>0.003145786941041108</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>0.00634015104085846</v>
+      </c>
+      <c r="E51">
+        <v>0.009209866260203415</v>
+      </c>
+      <c r="F51">
+        <v>-0.01565529631104995</v>
+      </c>
+      <c r="G51">
+        <v>-0.002495703125237479</v>
+      </c>
+      <c r="H51">
+        <v>-0.003560047316571909</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.1570973405791967</v>
+        <v>0.1618848219766033</v>
       </c>
       <c r="C53">
-        <v>0.07211875104343117</v>
+        <v>0.04741709276521679</v>
       </c>
       <c r="D53">
-        <v>0.002249218908484727</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.0224595873775105</v>
+      </c>
+      <c r="E53">
+        <v>-0.03254975941200087</v>
+      </c>
+      <c r="F53">
+        <v>-0.005833771246578698</v>
+      </c>
+      <c r="G53">
+        <v>-0.01305975486948095</v>
+      </c>
+      <c r="H53">
+        <v>0.1909743904686959</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.05704188203259989</v>
+        <v>0.05803471740495938</v>
       </c>
       <c r="C54">
-        <v>0.02189904544474185</v>
+        <v>0.01232276958376805</v>
       </c>
       <c r="D54">
-        <v>0.01768811893056196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>0.01389276666360484</v>
+      </c>
+      <c r="E54">
+        <v>0.04794761860127693</v>
+      </c>
+      <c r="F54">
+        <v>-0.006748180770559688</v>
+      </c>
+      <c r="G54">
+        <v>0.03493397373565498</v>
+      </c>
+      <c r="H54">
+        <v>0.04053496563468928</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.1006321808094503</v>
+        <v>0.1043285793792257</v>
       </c>
       <c r="C55">
-        <v>0.04825244181401193</v>
+        <v>0.03157938821834216</v>
       </c>
       <c r="D55">
-        <v>0.02232667497604553</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02653312478737173</v>
+      </c>
+      <c r="E55">
+        <v>0.006304246762575261</v>
+      </c>
+      <c r="F55">
+        <v>-0.01146819589081229</v>
+      </c>
+      <c r="G55">
+        <v>-0.002448961276490103</v>
+      </c>
+      <c r="H55">
+        <v>0.1543833426789186</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1526529092411384</v>
+        <v>0.1607561200341419</v>
       </c>
       <c r="C56">
-        <v>0.08297604237215507</v>
+        <v>0.05726927843377615</v>
       </c>
       <c r="D56">
-        <v>0.01232087950512398</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.03104392901815744</v>
+      </c>
+      <c r="E56">
+        <v>-0.01912862174982502</v>
+      </c>
+      <c r="F56">
+        <v>-0.02804472649920371</v>
+      </c>
+      <c r="G56">
+        <v>-0.01819026332328569</v>
+      </c>
+      <c r="H56">
+        <v>0.196621568625961</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.1311800937639318</v>
+        <v>0.09963382140041688</v>
       </c>
       <c r="C58">
-        <v>-0.005009963985526485</v>
+        <v>-0.0463052473481553</v>
       </c>
       <c r="D58">
-        <v>0.02465654761658268</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>0.03290533266867049</v>
+      </c>
+      <c r="E58">
+        <v>0.1395174886254339</v>
+      </c>
+      <c r="F58">
+        <v>-0.008707372716123032</v>
+      </c>
+      <c r="G58">
+        <v>-0.04923699277366495</v>
+      </c>
+      <c r="H58">
+        <v>-0.2190178895730876</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.1261690866824329</v>
+        <v>0.1420533672928805</v>
       </c>
       <c r="C59">
-        <v>0.07661309417123077</v>
+        <v>0.1033815374670309</v>
       </c>
       <c r="D59">
-        <v>-0.3766262615137096</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.3578665745960516</v>
+      </c>
+      <c r="E59">
+        <v>0.02663962482786274</v>
+      </c>
+      <c r="F59">
+        <v>-0.01235371520672197</v>
+      </c>
+      <c r="G59">
+        <v>-0.01627560270274618</v>
+      </c>
+      <c r="H59">
+        <v>-0.003787092031807251</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2087484589047567</v>
+        <v>0.2380415194470183</v>
       </c>
       <c r="C60">
-        <v>0.08979178520938522</v>
+        <v>0.06192577270881767</v>
       </c>
       <c r="D60">
-        <v>0.02445417658212412</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>0.0442050717295577</v>
+      </c>
+      <c r="E60">
+        <v>-0.1085993229899732</v>
+      </c>
+      <c r="F60">
+        <v>-0.05436273860414862</v>
+      </c>
+      <c r="G60">
+        <v>0.0005210378312405233</v>
+      </c>
+      <c r="H60">
+        <v>-0.1454701265797279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.0824819781119131</v>
+        <v>0.08927464358120397</v>
       </c>
       <c r="C61">
-        <v>0.04798144336517202</v>
+        <v>0.03370181846445317</v>
       </c>
       <c r="D61">
-        <v>0.03823408469487368</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>0.04102625588244484</v>
+      </c>
+      <c r="E61">
+        <v>0.002607493365886334</v>
+      </c>
+      <c r="F61">
+        <v>-0.002604109525148366</v>
+      </c>
+      <c r="G61">
+        <v>0.01272417032556731</v>
+      </c>
+      <c r="H61">
+        <v>0.05593304832703187</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>0.1312658732400849</v>
+        <v>0.1375568810116667</v>
       </c>
       <c r="C62">
-        <v>0.05790735093561</v>
+        <v>0.03374448504898695</v>
       </c>
       <c r="D62">
-        <v>0.020684174467333</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>0.04120867565903812</v>
+      </c>
+      <c r="E62">
+        <v>-0.05351829177391877</v>
+      </c>
+      <c r="F62">
+        <v>-0.002133250492404609</v>
+      </c>
+      <c r="G62">
+        <v>0.02476243676311438</v>
+      </c>
+      <c r="H62">
+        <v>0.1877467061623196</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.05213857322154536</v>
+        <v>0.05265437613451364</v>
       </c>
       <c r="C63">
-        <v>0.02255997869954127</v>
+        <v>0.01407427209252227</v>
       </c>
       <c r="D63">
-        <v>0.02384548336122429</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>0.01861383750044747</v>
+      </c>
+      <c r="E63">
+        <v>0.04846281295452111</v>
+      </c>
+      <c r="F63">
+        <v>0.003489307825745346</v>
+      </c>
+      <c r="G63">
+        <v>0.02169496040135023</v>
+      </c>
+      <c r="H63">
+        <v>0.04316639273278896</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.1048799810774872</v>
+        <v>0.1090117865850232</v>
       </c>
       <c r="C64">
-        <v>0.03015594251238698</v>
+        <v>0.0150272843596012</v>
       </c>
       <c r="D64">
-        <v>0.03689460669332058</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>0.03008045022201974</v>
+      </c>
+      <c r="E64">
+        <v>0.03211247084211008</v>
+      </c>
+      <c r="F64">
+        <v>-0.04367106390081778</v>
+      </c>
+      <c r="G64">
+        <v>0.05913190759079916</v>
+      </c>
+      <c r="H64">
+        <v>0.03488125761486684</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.1278565164772351</v>
+        <v>0.1286615464741596</v>
       </c>
       <c r="C65">
-        <v>0.05737765485714003</v>
+        <v>0.03970675957162597</v>
       </c>
       <c r="D65">
-        <v>0.00189883507993897</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.008785070765606336</v>
+      </c>
+      <c r="E65">
+        <v>-0.003191641658038902</v>
+      </c>
+      <c r="F65">
+        <v>-0.05177605441040061</v>
+      </c>
+      <c r="G65">
+        <v>0.05796106555443869</v>
+      </c>
+      <c r="H65">
+        <v>-0.1431125077742723</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.1483257252881348</v>
+        <v>0.1524280532544471</v>
       </c>
       <c r="C66">
-        <v>0.06577546533497504</v>
+        <v>0.03612796446116574</v>
       </c>
       <c r="D66">
-        <v>0.09911343428799196</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>0.09676838042975631</v>
+      </c>
+      <c r="E66">
+        <v>-0.020422598682948</v>
+      </c>
+      <c r="F66">
+        <v>-0.004922488800037045</v>
+      </c>
+      <c r="G66">
+        <v>0.05555832698562126</v>
+      </c>
+      <c r="H66">
+        <v>0.09084073920613817</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.07516128209157197</v>
+        <v>0.08414883930854947</v>
       </c>
       <c r="C67">
-        <v>0.00867672047914779</v>
+        <v>-0.0009494366886607072</v>
       </c>
       <c r="D67">
-        <v>0.02392217045047847</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>0.03257628919520228</v>
+      </c>
+      <c r="E67">
+        <v>0.01631710540788401</v>
+      </c>
+      <c r="F67">
+        <v>-0.01862979112420904</v>
+      </c>
+      <c r="G67">
+        <v>-0.007173332323103603</v>
+      </c>
+      <c r="H67">
+        <v>0.04205994486159775</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.06050545007369032</v>
+        <v>0.06151310150859438</v>
       </c>
       <c r="C68">
-        <v>0.04902454985602979</v>
+        <v>0.07288792209980589</v>
       </c>
       <c r="D68">
-        <v>-0.2540284755030219</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.2658865513623843</v>
+      </c>
+      <c r="E68">
+        <v>0.03964141119122468</v>
+      </c>
+      <c r="F68">
+        <v>-0.01533838555018777</v>
+      </c>
+      <c r="G68">
+        <v>-0.007245633709885803</v>
+      </c>
+      <c r="H68">
+        <v>0.008338702866503124</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.05179388972169009</v>
+        <v>0.05301818035573468</v>
       </c>
       <c r="C69">
-        <v>0.01413302928063147</v>
+        <v>0.003983875759601781</v>
       </c>
       <c r="D69">
-        <v>0.02385877159416211</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>0.0176766491813909</v>
+      </c>
+      <c r="E69">
+        <v>0.02606634263608498</v>
+      </c>
+      <c r="F69">
+        <v>0.0121561591555448</v>
+      </c>
+      <c r="G69">
+        <v>-0.01606542877417615</v>
+      </c>
+      <c r="H69">
+        <v>0.05933756825254079</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003639710122706252</v>
+        <v>0.02863242629575486</v>
       </c>
       <c r="C70">
-        <v>-0.008558150966553379</v>
+        <v>-0.002524108944550798</v>
       </c>
       <c r="D70">
-        <v>-0.006995278130242286</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.005617484242778455</v>
+      </c>
+      <c r="E70">
+        <v>-0.02548745291900864</v>
+      </c>
+      <c r="F70">
+        <v>-0.01140269111458892</v>
+      </c>
+      <c r="G70">
+        <v>-0.01707357151389981</v>
+      </c>
+      <c r="H70">
+        <v>-0.01786006712751996</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.05930938245103258</v>
+        <v>0.06491829347859954</v>
       </c>
       <c r="C71">
-        <v>0.04939041868901815</v>
+        <v>0.07993124388857668</v>
       </c>
       <c r="D71">
-        <v>-0.2889609320973778</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.2929566549849196</v>
+      </c>
+      <c r="E71">
+        <v>0.03414728730546992</v>
+      </c>
+      <c r="F71">
+        <v>-0.04532746546194313</v>
+      </c>
+      <c r="G71">
+        <v>0.00187303149238481</v>
+      </c>
+      <c r="H71">
+        <v>0.00620801610461879</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.1436078432124168</v>
+        <v>0.1458063629510151</v>
       </c>
       <c r="C72">
-        <v>0.0578427582200305</v>
+        <v>0.03241243482162794</v>
       </c>
       <c r="D72">
-        <v>0.0009176444022069982</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.0006590428925277877</v>
+      </c>
+      <c r="E72">
+        <v>-0.07614824298484751</v>
+      </c>
+      <c r="F72">
+        <v>0.1709009882839327</v>
+      </c>
+      <c r="G72">
+        <v>0.1136939940888386</v>
+      </c>
+      <c r="H72">
+        <v>-0.01931194173153948</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.2873944935823619</v>
+        <v>0.2880349145369726</v>
       </c>
       <c r="C73">
-        <v>0.09199230924493873</v>
+        <v>0.02958059329116085</v>
       </c>
       <c r="D73">
-        <v>0.05416718902324307</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>0.104116483400927</v>
+      </c>
+      <c r="E73">
+        <v>-0.2315986975612062</v>
+      </c>
+      <c r="F73">
+        <v>-0.08932609696236049</v>
+      </c>
+      <c r="G73">
+        <v>-0.196058931804217</v>
+      </c>
+      <c r="H73">
+        <v>-0.4782779874177409</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.08366308158305345</v>
+        <v>0.09147655876211593</v>
       </c>
       <c r="C74">
-        <v>0.07495919637962016</v>
+        <v>0.05754652566797722</v>
       </c>
       <c r="D74">
-        <v>0.007466350287545577</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.03365795187009144</v>
+      </c>
+      <c r="E74">
+        <v>-0.002106811483546839</v>
+      </c>
+      <c r="F74">
+        <v>0.001472196717477676</v>
+      </c>
+      <c r="G74">
+        <v>-0.04270516253601228</v>
+      </c>
+      <c r="H74">
+        <v>0.1266876453749406</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.09680515207827918</v>
+        <v>0.1018972881100308</v>
       </c>
       <c r="C75">
-        <v>0.04664006907958066</v>
+        <v>0.0253615624619691</v>
       </c>
       <c r="D75">
-        <v>0.008149167493131297</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.01978875867531591</v>
+      </c>
+      <c r="E75">
+        <v>0.003395749042172116</v>
+      </c>
+      <c r="F75">
+        <v>-0.01930726894327086</v>
+      </c>
+      <c r="G75">
+        <v>-0.02053164464305655</v>
+      </c>
+      <c r="H75">
+        <v>0.1227543574045647</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1337403307040688</v>
+        <v>0.1423383512147207</v>
       </c>
       <c r="C76">
-        <v>0.078261227302644</v>
+        <v>0.05474133079142528</v>
       </c>
       <c r="D76">
-        <v>0.0384323746253225</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.0517574025590534</v>
+      </c>
+      <c r="E76">
+        <v>0.01530005895459655</v>
+      </c>
+      <c r="F76">
+        <v>-0.04540710219541641</v>
+      </c>
+      <c r="G76">
+        <v>-0.00602953976900869</v>
+      </c>
+      <c r="H76">
+        <v>0.220157321270197</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.1161663273296056</v>
+        <v>0.104866183376151</v>
       </c>
       <c r="C77">
-        <v>0.008762106739686294</v>
+        <v>-0.0196385822390375</v>
       </c>
       <c r="D77">
-        <v>0.09258240719372876</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>0.04039216101382102</v>
+      </c>
+      <c r="E77">
+        <v>0.02089529460927493</v>
+      </c>
+      <c r="F77">
+        <v>-0.08209983351908143</v>
+      </c>
+      <c r="G77">
+        <v>0.8711169450034296</v>
+      </c>
+      <c r="H77">
+        <v>-0.1673385844604126</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.106764531075502</v>
+        <v>0.1472733009970944</v>
       </c>
       <c r="C78">
-        <v>0.03400417774073833</v>
+        <v>0.03042708207064892</v>
       </c>
       <c r="D78">
-        <v>0.08452262246155406</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>0.0780461340284555</v>
+      </c>
+      <c r="E78">
+        <v>0.05066533550408813</v>
+      </c>
+      <c r="F78">
+        <v>-0.05850689520897414</v>
+      </c>
+      <c r="G78">
+        <v>0.08088154111867676</v>
+      </c>
+      <c r="H78">
+        <v>-0.04695766607166597</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>0.1486440162563572</v>
+        <v>0.1494035844600832</v>
       </c>
       <c r="C79">
-        <v>0.06578718632950074</v>
+        <v>0.03590495063130493</v>
       </c>
       <c r="D79">
-        <v>0.01873227623859851</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03222845513692287</v>
+      </c>
+      <c r="E79">
+        <v>-0.01422080112657165</v>
+      </c>
+      <c r="F79">
+        <v>-0.01643031043302334</v>
+      </c>
+      <c r="G79">
+        <v>-0.02390507891298535</v>
+      </c>
+      <c r="H79">
+        <v>0.169093140885682</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.04073544122744624</v>
+        <v>0.04255770590887476</v>
       </c>
       <c r="C80">
-        <v>0.01820230197281373</v>
+        <v>0.01297184070492728</v>
       </c>
       <c r="D80">
-        <v>0.02855725180596763</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>0.01431512969395199</v>
+      </c>
+      <c r="E80">
+        <v>-0.03019570420469782</v>
+      </c>
+      <c r="F80">
+        <v>-0.005395123658138664</v>
+      </c>
+      <c r="G80">
+        <v>-0.02143682347474407</v>
+      </c>
+      <c r="H80">
+        <v>0.03496178537178415</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1196826172199499</v>
+        <v>0.1205484742761717</v>
       </c>
       <c r="C81">
-        <v>0.05814437119022436</v>
+        <v>0.03406402653278169</v>
       </c>
       <c r="D81">
-        <v>0.03407996474836292</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.02998189704629621</v>
+      </c>
+      <c r="E81">
+        <v>0.008168181459248731</v>
+      </c>
+      <c r="F81">
+        <v>-0.0174014217038428</v>
+      </c>
+      <c r="G81">
+        <v>-0.04895076110682763</v>
+      </c>
+      <c r="H81">
+        <v>0.1677606522699502</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.1325614893234384</v>
+        <v>0.131073172046168</v>
       </c>
       <c r="C82">
-        <v>0.07152240116656132</v>
+        <v>0.04713888039808584</v>
       </c>
       <c r="D82">
-        <v>0.01342719924419541</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.03284411105060344</v>
+      </c>
+      <c r="E82">
+        <v>-0.02156748008548284</v>
+      </c>
+      <c r="F82">
+        <v>-0.04647396462777902</v>
+      </c>
+      <c r="G82">
+        <v>-0.0344920917724614</v>
+      </c>
+      <c r="H82">
+        <v>0.2213533228191419</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.06979966540225405</v>
+        <v>0.08422898195366131</v>
       </c>
       <c r="C83">
-        <v>-0.02204122351711468</v>
+        <v>-0.0322349472229984</v>
       </c>
       <c r="D83">
-        <v>0.02152327782633555</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>0.02545705691007322</v>
+      </c>
+      <c r="E83">
+        <v>0.02044941962943489</v>
+      </c>
+      <c r="F83">
+        <v>-0.05769763630565514</v>
+      </c>
+      <c r="G83">
+        <v>-0.06143072843750137</v>
+      </c>
+      <c r="H83">
+        <v>-0.04625539149164195</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0.03007934948852856</v>
+        <v>0.03690937097736843</v>
       </c>
       <c r="C84">
-        <v>0.02777620839784597</v>
+        <v>0.02138254824371126</v>
       </c>
       <c r="D84">
-        <v>0.02653088637598457</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>0.03127419337261604</v>
+      </c>
+      <c r="E84">
+        <v>0.03205807036420195</v>
+      </c>
+      <c r="F84">
+        <v>0.05109637008027295</v>
+      </c>
+      <c r="G84">
+        <v>-0.05768579167404097</v>
+      </c>
+      <c r="H84">
+        <v>0.007165783070943594</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1152889596426862</v>
+        <v>0.1193776993157044</v>
       </c>
       <c r="C85">
-        <v>0.04110329222503447</v>
+        <v>0.01942195897116644</v>
       </c>
       <c r="D85">
-        <v>0.04685481232001811</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.03852002012219307</v>
+      </c>
+      <c r="E85">
+        <v>0.01856327352368373</v>
+      </c>
+      <c r="F85">
+        <v>-0.04137139976042591</v>
+      </c>
+      <c r="G85">
+        <v>-0.02250060381684824</v>
+      </c>
+      <c r="H85">
+        <v>0.1596606161319905</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.05320122036100509</v>
+        <v>0.05867683988721317</v>
       </c>
       <c r="C86">
-        <v>0.01950826260686045</v>
+        <v>0.009601505517518918</v>
       </c>
       <c r="D86">
-        <v>0.05635225087714277</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>0.02997109462119919</v>
+      </c>
+      <c r="E86">
+        <v>0.04775154026445196</v>
+      </c>
+      <c r="F86">
+        <v>-0.0243116863732066</v>
+      </c>
+      <c r="G86">
+        <v>-0.03180934276298286</v>
+      </c>
+      <c r="H86">
+        <v>-0.01814566826116599</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.1219050126136102</v>
+        <v>0.1257274815085955</v>
       </c>
       <c r="C87">
-        <v>0.06472990559265923</v>
+        <v>0.03366474358579098</v>
       </c>
       <c r="D87">
-        <v>0.07347411946872306</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>0.06707422555163216</v>
+      </c>
+      <c r="E87">
+        <v>0.01279949359804948</v>
+      </c>
+      <c r="F87">
+        <v>-0.01316348998628372</v>
+      </c>
+      <c r="G87">
+        <v>0.1229224430179124</v>
+      </c>
+      <c r="H87">
+        <v>-0.05506385042655016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.05359976377138113</v>
+        <v>0.06198406535016424</v>
       </c>
       <c r="C88">
-        <v>0.02783060914255282</v>
+        <v>0.01886025822419419</v>
       </c>
       <c r="D88">
-        <v>0.02479725406298065</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>0.03483657769450826</v>
+      </c>
+      <c r="E88">
+        <v>0.01522064693206127</v>
+      </c>
+      <c r="F88">
+        <v>-0.01134429421363256</v>
+      </c>
+      <c r="G88">
+        <v>0.01114278359646995</v>
+      </c>
+      <c r="H88">
+        <v>0.04646467929189393</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.0902318276754687</v>
+        <v>0.1017751658065222</v>
       </c>
       <c r="C89">
-        <v>0.07143719336416041</v>
+        <v>0.1040764032946146</v>
       </c>
       <c r="D89">
-        <v>-0.3297025566695123</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>-0.3417400496090254</v>
+      </c>
+      <c r="E89">
+        <v>0.07004499379839509</v>
+      </c>
+      <c r="F89">
+        <v>-0.08652096059251654</v>
+      </c>
+      <c r="G89">
+        <v>-0.02281906656351642</v>
+      </c>
+      <c r="H89">
+        <v>0.00514541058171916</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.07695539571021535</v>
+        <v>0.08328103568504473</v>
       </c>
       <c r="C90">
-        <v>0.05884195937548291</v>
+        <v>0.08522941416129698</v>
       </c>
       <c r="D90">
-        <v>-0.3101804490670752</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.3007783521918386</v>
+      </c>
+      <c r="E90">
+        <v>0.07040497725309888</v>
+      </c>
+      <c r="F90">
+        <v>-0.009245426960708529</v>
+      </c>
+      <c r="G90">
+        <v>0.01413587942425588</v>
+      </c>
+      <c r="H90">
+        <v>-0.01066817041504815</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.08899760180083142</v>
+        <v>0.09138856454374221</v>
       </c>
       <c r="C91">
-        <v>0.04958192811067635</v>
+        <v>0.02958442255586908</v>
       </c>
       <c r="D91">
-        <v>0.02149816643018542</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.0294369415822584</v>
+      </c>
+      <c r="E91">
+        <v>0.007914149899532454</v>
+      </c>
+      <c r="F91">
+        <v>-0.002772261277205603</v>
+      </c>
+      <c r="G91">
+        <v>-0.03541221748721815</v>
+      </c>
+      <c r="H91">
+        <v>0.09635829952074532</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.07595592047813179</v>
+        <v>0.08386940482271284</v>
       </c>
       <c r="C92">
-        <v>0.07311717186352806</v>
+        <v>0.1055805556842594</v>
       </c>
       <c r="D92">
-        <v>-0.3344845958264636</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.3371360082180854</v>
+      </c>
+      <c r="E92">
+        <v>0.04042155050276567</v>
+      </c>
+      <c r="F92">
+        <v>-0.04610224323516201</v>
+      </c>
+      <c r="G92">
+        <v>0.01326426389107612</v>
+      </c>
+      <c r="H92">
+        <v>0.01631552078826206</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.06675300958763196</v>
+        <v>0.07849593092806066</v>
       </c>
       <c r="C93">
-        <v>0.06492283867618842</v>
+        <v>0.09770355030160874</v>
       </c>
       <c r="D93">
-        <v>-0.2971948145758705</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>-0.2992120998842843</v>
+      </c>
+      <c r="E93">
+        <v>0.02309366859141857</v>
+      </c>
+      <c r="F93">
+        <v>-0.03337918222512019</v>
+      </c>
+      <c r="G93">
+        <v>0.01910399736815309</v>
+      </c>
+      <c r="H93">
+        <v>-0.01442487298982113</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.1353431352475359</v>
+        <v>0.1287547763314947</v>
       </c>
       <c r="C94">
-        <v>0.04262434505017537</v>
+        <v>0.01152232553694109</v>
       </c>
       <c r="D94">
-        <v>0.04129199477917336</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.04894802577747394</v>
+      </c>
+      <c r="E94">
+        <v>-0.01605766384509531</v>
+      </c>
+      <c r="F94">
+        <v>-0.01206040875433301</v>
+      </c>
+      <c r="G94">
+        <v>-0.05439623176956156</v>
+      </c>
+      <c r="H94">
+        <v>0.1168308953210943</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.123417468857146</v>
+        <v>0.1299359697869899</v>
       </c>
       <c r="C95">
-        <v>0.02348923851993151</v>
+        <v>-0.001418783402208247</v>
       </c>
       <c r="D95">
-        <v>0.05184946583411724</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>0.05948564517782462</v>
+      </c>
+      <c r="E95">
+        <v>0.01101770091549716</v>
+      </c>
+      <c r="F95">
+        <v>-0.04000011162982886</v>
+      </c>
+      <c r="G95">
+        <v>0.04394288676238083</v>
+      </c>
+      <c r="H95">
+        <v>-0.06514262292033908</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>0.2218424353061018</v>
+        <v>0.203515557107942</v>
       </c>
       <c r="C97">
-        <v>0.03907882711949034</v>
+        <v>-0.003583813854072494</v>
       </c>
       <c r="D97">
-        <v>-0.1117834529231555</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>-0.08063094547342152</v>
+      </c>
+      <c r="E97">
+        <v>-0.1498053481831373</v>
+      </c>
+      <c r="F97">
+        <v>0.916875333495245</v>
+      </c>
+      <c r="G97">
+        <v>0.0590920056989428</v>
+      </c>
+      <c r="H97">
+        <v>0.002993760668510109</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.2457068267746332</v>
+        <v>0.2750168956902564</v>
       </c>
       <c r="C98">
-        <v>0.05557996202676123</v>
+        <v>0.02074645888656975</v>
       </c>
       <c r="D98">
-        <v>0.03436287465578691</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>0.05426383235680936</v>
+      </c>
+      <c r="E98">
+        <v>-0.1898218395345243</v>
+      </c>
+      <c r="F98">
+        <v>-0.05185773434799497</v>
+      </c>
+      <c r="G98">
+        <v>-0.2611096706337505</v>
+      </c>
+      <c r="H98">
+        <v>-0.1999498595340748</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>0.3967780016300846</v>
+        <v>0.265861731693918</v>
       </c>
       <c r="C99">
-        <v>-0.8999319325498729</v>
+        <v>-0.9282402629909735</v>
       </c>
       <c r="D99">
-        <v>-0.0585804450890839</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.1850613390893497</v>
+      </c>
+      <c r="E99">
+        <v>0.07029668761077992</v>
+      </c>
+      <c r="F99">
+        <v>-0.06296054332528368</v>
+      </c>
+      <c r="G99">
+        <v>-0.01394472627785239</v>
+      </c>
+      <c r="H99">
+        <v>0.06982681831153729</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.04251878520556178</v>
+        <v>0.0475812942911993</v>
       </c>
       <c r="C101">
-        <v>0.0290861906579441</v>
+        <v>0.02465722438012275</v>
       </c>
       <c r="D101">
-        <v>0.009569553697610603</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>0.01140932639604659</v>
+      </c>
+      <c r="E101">
+        <v>0.06200099112578392</v>
+      </c>
+      <c r="F101">
+        <v>-0.01343558427148268</v>
+      </c>
+      <c r="G101">
+        <v>0.003892980909797102</v>
+      </c>
+      <c r="H101">
+        <v>0.07623558882462525</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
